--- a/SỐ ĐIỆN THOẠI HỖ TRỢ AE PHƯỢT THỦ CÁC TỈNH THÀNH VIỆT NAM.xlsx
+++ b/SỐ ĐIỆN THOẠI HỖ TRỢ AE PHƯỢT THỦ CÁC TỈNH THÀNH VIỆT NAM.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\picture\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sẽ đi\XuyenViet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="176">
   <si>
     <t>SỐ ĐIỆN THOẠI HỖ TRỢ AE PHƯỢT THỦ CÁC TỈNH THÀNH VIỆT NAM</t>
   </si>
@@ -534,9 +534,6 @@
     <t>- Nhỏ Thiên</t>
   </si>
   <si>
-    <t>- https://www.facebook.com/thien.nho.9066?fref=nf</t>
-  </si>
-  <si>
     <t>46. Quảng Nam</t>
   </si>
   <si>
@@ -544,12 +541,6 @@
   </si>
   <si>
     <t>48. Quảng Ngãi</t>
-  </si>
-  <si>
-    <t>- Minh Toàn Võ</t>
-  </si>
-  <si>
-    <t>- https://www.facebook.com/nguyenkhang.vo.16?fref=ufi</t>
   </si>
   <si>
     <t>49. Quảng Trị</t>
@@ -668,6 +659,18 @@
   <si>
     <t>https://www.facebook.com/profile.php?id=100008234250537&amp;fref=ufi</t>
   </si>
+  <si>
+    <t>https://www.facebook.com/thien.nho.9066?fref=nf</t>
+  </si>
+  <si>
+    <t>Phiêu Du (Hội An)</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/nguyenkhang.vo.16?fref=ufi</t>
+  </si>
+  <si>
+    <t>Minh Toàn Võ</t>
+  </si>
 </sst>
 </file>
 
@@ -785,36 +788,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -825,10 +809,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -837,6 +817,29 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -925,6 +928,54 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="7648575" cy="19240500"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4286250</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7648575" cy="19078575"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1217,8 +1268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1235,14 +1286,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -1262,20 +1313,20 @@
       <c r="W1" s="2"/>
     </row>
     <row r="2" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="2"/>
@@ -1297,17 +1348,17 @@
       <c r="W2" s="2"/>
     </row>
     <row r="3" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="8"/>
@@ -1330,17 +1381,17 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="8" t="s">
@@ -1365,11 +1416,11 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="17"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -1392,11 +1443,11 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="17"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -1419,11 +1470,11 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="17"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -1446,17 +1497,17 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="17" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="12">
         <v>-913.97528299999999</v>
       </c>
       <c r="F8" s="8"/>
@@ -1479,11 +1530,11 @@
       <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="17" t="s">
+      <c r="B9" s="20"/>
+      <c r="C9" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -1514,20 +1565,20 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="20" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="12" t="s">
         <v>30</v>
       </c>
       <c r="G10" s="4"/>
@@ -1549,17 +1600,17 @@
       <c r="W10" s="4"/>
     </row>
     <row r="11" spans="1:23" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="17" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="12" t="s">
         <v>34</v>
       </c>
       <c r="F11" s="8" t="s">
@@ -1584,11 +1635,11 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="17" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="11" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -1617,17 +1668,17 @@
       <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="17" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="11" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="12">
         <v>-1673908284</v>
       </c>
       <c r="F13" s="8"/>
@@ -1650,15 +1701,15 @@
       <c r="W13" s="2"/>
     </row>
     <row r="14" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="17" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="11" t="s">
         <v>43</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="12" t="s">
         <v>45</v>
       </c>
       <c r="F14" s="8" t="s">
@@ -1683,17 +1734,17 @@
       <c r="W14" s="2"/>
     </row>
     <row r="15" spans="1:23" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="17" t="s">
+      <c r="B15" s="20"/>
+      <c r="C15" s="11" t="s">
         <v>48</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="12" t="s">
         <v>50</v>
       </c>
       <c r="F15" s="8"/>
@@ -1716,11 +1767,11 @@
       <c r="W15" s="2"/>
     </row>
     <row r="16" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="17"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
@@ -1743,15 +1794,15 @@
       <c r="W16" s="2"/>
     </row>
     <row r="17" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="17" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="11" t="s">
         <v>53</v>
       </c>
       <c r="D17" s="8"/>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="12" t="s">
         <v>54</v>
       </c>
       <c r="F17" s="8"/>
@@ -1774,17 +1825,17 @@
       <c r="W17" s="2"/>
     </row>
     <row r="18" spans="1:23" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="17" t="s">
+      <c r="B18" s="20"/>
+      <c r="C18" s="11" t="s">
         <v>56</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="12">
         <v>-169.92710679999999</v>
       </c>
       <c r="F18" s="8"/>
@@ -1807,13 +1858,13 @@
       <c r="W18" s="2"/>
     </row>
     <row r="19" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="17"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="11"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="18">
+      <c r="E19" s="12">
         <v>-944.44138899999996</v>
       </c>
       <c r="F19" s="8"/>
@@ -1836,17 +1887,17 @@
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="17" t="s">
+      <c r="B20" s="20"/>
+      <c r="C20" s="11" t="s">
         <v>60</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="12" t="s">
         <v>62</v>
       </c>
       <c r="F20" s="8" t="s">
@@ -1871,13 +1922,13 @@
       <c r="W20" s="2"/>
     </row>
     <row r="21" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="17"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="11"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="18">
+      <c r="E21" s="12">
         <v>-934.54667900000004</v>
       </c>
       <c r="F21" s="8"/>
@@ -1900,17 +1951,17 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="17" t="s">
+      <c r="B22" s="20"/>
+      <c r="C22" s="11" t="s">
         <v>66</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="12" t="s">
         <v>68</v>
       </c>
       <c r="F22" s="8"/>
@@ -1933,11 +1984,11 @@
       <c r="W22" s="2"/>
     </row>
     <row r="23" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="17"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="11"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
@@ -1960,15 +2011,15 @@
       <c r="W23" s="2"/>
     </row>
     <row r="24" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="17" t="s">
+      <c r="B24" s="20"/>
+      <c r="C24" s="11" t="s">
         <v>71</v>
       </c>
       <c r="D24" s="8"/>
-      <c r="E24" s="18">
+      <c r="E24" s="12">
         <v>-988321452</v>
       </c>
       <c r="F24" s="8"/>
@@ -1991,17 +2042,17 @@
       <c r="W24" s="2"/>
     </row>
     <row r="25" spans="1:23" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="17" t="s">
+      <c r="B25" s="20"/>
+      <c r="C25" s="11" t="s">
         <v>73</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="12" t="s">
         <v>75</v>
       </c>
       <c r="F25" s="8"/>
@@ -2024,11 +2075,11 @@
       <c r="W25" s="2"/>
     </row>
     <row r="26" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="17"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="11"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
@@ -2051,17 +2102,17 @@
       <c r="W26" s="2"/>
     </row>
     <row r="27" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="17" t="s">
+      <c r="B27" s="20"/>
+      <c r="C27" s="11" t="s">
         <v>78</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="12" t="s">
         <v>80</v>
       </c>
       <c r="F27" s="8" t="s">
@@ -2086,17 +2137,17 @@
       <c r="W27" s="2"/>
     </row>
     <row r="28" spans="1:23" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="17" t="s">
+      <c r="B28" s="20"/>
+      <c r="C28" s="11" t="s">
         <v>83</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="12" t="s">
         <v>85</v>
       </c>
       <c r="F28" s="8" t="s">
@@ -2121,17 +2172,17 @@
       <c r="W28" s="2"/>
     </row>
     <row r="29" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="17" t="s">
+      <c r="B29" s="20"/>
+      <c r="C29" s="11" t="s">
         <v>88</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="12" t="s">
         <v>90</v>
       </c>
       <c r="F29" s="8" t="s">
@@ -2156,17 +2207,17 @@
       <c r="W29" s="2"/>
     </row>
     <row r="30" spans="1:23" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="17" t="s">
+      <c r="B30" s="20"/>
+      <c r="C30" s="11" t="s">
         <v>93</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="12">
         <v>-948161183</v>
       </c>
       <c r="F30" s="8" t="s">
@@ -2191,11 +2242,11 @@
       <c r="W30" s="2"/>
     </row>
     <row r="31" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="17"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="11"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
@@ -2218,11 +2269,11 @@
       <c r="W31" s="2"/>
     </row>
     <row r="32" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="17"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="11"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
@@ -2245,11 +2296,11 @@
       <c r="W32" s="2"/>
     </row>
     <row r="33" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="17"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="11"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -2272,11 +2323,11 @@
       <c r="W33" s="2"/>
     </row>
     <row r="34" spans="1:23" ht="102" x14ac:dyDescent="0.2">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="17" t="s">
+      <c r="B34" s="20"/>
+      <c r="C34" s="11" t="s">
         <v>100</v>
       </c>
       <c r="D34" s="8" t="s">
@@ -2307,11 +2358,11 @@
       <c r="W34" s="2"/>
     </row>
     <row r="35" spans="1:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="17"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="11"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
@@ -2334,11 +2385,11 @@
       <c r="W35" s="2"/>
     </row>
     <row r="36" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="17"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="11"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
@@ -2361,11 +2412,11 @@
       <c r="W36" s="2"/>
     </row>
     <row r="37" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="17"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="11"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
@@ -2388,11 +2439,11 @@
       <c r="W37" s="2"/>
     </row>
     <row r="38" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="17"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="11"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
@@ -2415,11 +2466,11 @@
       <c r="W38" s="2"/>
     </row>
     <row r="39" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="17"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="11"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
@@ -2442,15 +2493,15 @@
       <c r="W39" s="2"/>
     </row>
     <row r="40" spans="1:23" ht="51" x14ac:dyDescent="0.2">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="17" t="s">
+      <c r="B40" s="20"/>
+      <c r="C40" s="11" t="s">
         <v>110</v>
       </c>
       <c r="D40" s="8"/>
-      <c r="E40" s="18" t="s">
+      <c r="E40" s="12" t="s">
         <v>111</v>
       </c>
       <c r="F40" s="8" t="s">
@@ -2475,17 +2526,17 @@
       <c r="W40" s="2"/>
     </row>
     <row r="41" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="22" t="s">
+      <c r="B41" s="20"/>
+      <c r="C41" s="15" t="s">
         <v>114</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E41" s="18">
+      <c r="E41" s="12">
         <v>-1668375387</v>
       </c>
       <c r="F41" s="8"/>
@@ -2508,15 +2559,15 @@
       <c r="W41" s="2"/>
     </row>
     <row r="42" spans="1:23" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="17"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="11"/>
       <c r="D42" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E42" s="12">
         <v>-943.73032499999999</v>
       </c>
       <c r="F42" s="8"/>
@@ -2539,17 +2590,17 @@
       <c r="W42" s="2"/>
     </row>
     <row r="43" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="17" t="s">
+      <c r="B43" s="20"/>
+      <c r="C43" s="11" t="s">
         <v>119</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E43" s="18">
+      <c r="E43" s="12">
         <v>-986873874</v>
       </c>
       <c r="F43" s="8"/>
@@ -2572,11 +2623,11 @@
       <c r="W43" s="2"/>
     </row>
     <row r="44" spans="1:23" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="17" t="s">
+      <c r="B44" s="20"/>
+      <c r="C44" s="11" t="s">
         <v>122</v>
       </c>
       <c r="D44" s="8" t="s">
@@ -2605,17 +2656,17 @@
       <c r="W44" s="2"/>
     </row>
     <row r="45" spans="1:23" ht="51" x14ac:dyDescent="0.2">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="17" t="s">
+      <c r="B45" s="20"/>
+      <c r="C45" s="11" t="s">
         <v>126</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="E45" s="18" t="s">
+      <c r="E45" s="12" t="s">
         <v>128</v>
       </c>
       <c r="F45" s="8" t="s">
@@ -2640,11 +2691,11 @@
       <c r="W45" s="2"/>
     </row>
     <row r="46" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="17"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="11"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
@@ -2667,17 +2718,17 @@
       <c r="W46" s="2"/>
     </row>
     <row r="47" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="17" t="s">
+      <c r="B47" s="20"/>
+      <c r="C47" s="11" t="s">
         <v>132</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="E47" s="18">
+      <c r="E47" s="12">
         <v>-941.00001899999995</v>
       </c>
       <c r="F47" s="8"/>
@@ -2700,17 +2751,17 @@
       <c r="W47" s="2"/>
     </row>
     <row r="48" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="17" t="s">
+      <c r="B48" s="20"/>
+      <c r="C48" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D48" s="8" t="s">
-        <v>136</v>
+      <c r="D48" s="18" t="s">
+        <v>172</v>
       </c>
-      <c r="E48" s="18">
+      <c r="E48" s="12">
         <v>-961.54412000000002</v>
       </c>
       <c r="F48" s="8"/>
@@ -2733,18 +2784,17 @@
       <c r="W48" s="2"/>
     </row>
     <row r="49" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="16" t="s">
-        <v>137</v>
+      <c r="A49" s="19" t="s">
+        <v>136</v>
       </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="17" t="e">
-        <f>- Phiêu Du (Hội An)</f>
-        <v>#NAME?</v>
+      <c r="B49" s="20"/>
+      <c r="C49" s="11" t="s">
+        <v>173</v>
       </c>
-      <c r="D49" s="27" t="s">
-        <v>174</v>
+      <c r="D49" s="18" t="s">
+        <v>171</v>
       </c>
-      <c r="E49" s="18">
+      <c r="E49" s="12">
         <v>-905.35322699999995</v>
       </c>
       <c r="F49" s="8" t="s">
@@ -2769,11 +2819,11 @@
       <c r="W49" s="2"/>
     </row>
     <row r="50" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="16" t="s">
-        <v>138</v>
+      <c r="A50" s="19" t="s">
+        <v>137</v>
       </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="17"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="11"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
@@ -2796,17 +2846,17 @@
       <c r="W50" s="2"/>
     </row>
     <row r="51" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="16" t="s">
-        <v>139</v>
+      <c r="A51" s="19" t="s">
+        <v>138</v>
       </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="17" t="s">
-        <v>140</v>
+      <c r="B51" s="20"/>
+      <c r="C51" s="11" t="s">
+        <v>175</v>
       </c>
-      <c r="D51" s="8" t="s">
-        <v>141</v>
+      <c r="D51" s="18" t="s">
+        <v>174</v>
       </c>
-      <c r="E51" s="18">
+      <c r="E51" s="12">
         <v>-888231031</v>
       </c>
       <c r="F51" s="8"/>
@@ -2829,11 +2879,11 @@
       <c r="W51" s="2"/>
     </row>
     <row r="52" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="16" t="s">
-        <v>142</v>
+      <c r="A52" s="19" t="s">
+        <v>139</v>
       </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="17"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="11"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
@@ -2856,21 +2906,21 @@
       <c r="W52" s="2"/>
     </row>
     <row r="53" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B53" s="20"/>
+      <c r="C53" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E53" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="B53" s="13"/>
-      <c r="C53" s="17" t="s">
+      <c r="F53" s="8" t="s">
         <v>144</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="E53" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>147</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -2891,21 +2941,21 @@
       <c r="W53" s="2"/>
     </row>
     <row r="54" spans="1:23" ht="51" x14ac:dyDescent="0.2">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B54" s="20"/>
+      <c r="C54" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E54" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="B54" s="13"/>
-      <c r="C54" s="22" t="s">
+      <c r="F54" s="8" t="s">
         <v>149</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="E54" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>152</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -2926,11 +2976,11 @@
       <c r="W54" s="2"/>
     </row>
     <row r="55" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="16" t="s">
-        <v>153</v>
+      <c r="A55" s="19" t="s">
+        <v>150</v>
       </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="17"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="11"/>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
@@ -2953,21 +3003,21 @@
       <c r="W55" s="2"/>
     </row>
     <row r="56" spans="1:23" ht="51" x14ac:dyDescent="0.2">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="B56" s="20"/>
+      <c r="C56" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E56" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="17" t="s">
+      <c r="F56" s="8" t="s">
         <v>155</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E56" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>158</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
@@ -2988,12 +3038,12 @@
       <c r="W56" s="2"/>
     </row>
     <row r="57" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="16" t="s">
-        <v>159</v>
+      <c r="A57" s="19" t="s">
+        <v>156</v>
       </c>
-      <c r="B57" s="13"/>
-      <c r="C57" s="17" t="s">
-        <v>160</v>
+      <c r="B57" s="20"/>
+      <c r="C57" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3017,11 +3067,11 @@
       <c r="W57" s="2"/>
     </row>
     <row r="58" spans="1:23" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="21" t="s">
-        <v>161</v>
+      <c r="A58" s="14" t="s">
+        <v>158</v>
       </c>
-      <c r="B58" s="21"/>
-      <c r="C58" s="17"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="11"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
@@ -3044,11 +3094,11 @@
       <c r="W58" s="2"/>
     </row>
     <row r="59" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="16" t="s">
-        <v>162</v>
+      <c r="A59" s="19" t="s">
+        <v>159</v>
       </c>
-      <c r="B59" s="13"/>
-      <c r="C59" s="17"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="11"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
@@ -3071,11 +3121,11 @@
       <c r="W59" s="2"/>
     </row>
     <row r="60" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="16" t="s">
-        <v>163</v>
+      <c r="A60" s="19" t="s">
+        <v>160</v>
       </c>
-      <c r="B60" s="13"/>
-      <c r="C60" s="17"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="11"/>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
@@ -3098,11 +3148,11 @@
       <c r="W60" s="2"/>
     </row>
     <row r="61" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="16" t="s">
-        <v>164</v>
+      <c r="A61" s="19" t="s">
+        <v>161</v>
       </c>
-      <c r="B61" s="13"/>
-      <c r="C61" s="17"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="11"/>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
@@ -3125,11 +3175,11 @@
       <c r="W61" s="2"/>
     </row>
     <row r="62" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="16" t="s">
-        <v>165</v>
+      <c r="A62" s="19" t="s">
+        <v>162</v>
       </c>
-      <c r="B62" s="13"/>
-      <c r="C62" s="17"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="11"/>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
@@ -3152,11 +3202,11 @@
       <c r="W62" s="2"/>
     </row>
     <row r="63" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="16" t="s">
-        <v>166</v>
+      <c r="A63" s="19" t="s">
+        <v>163</v>
       </c>
-      <c r="B63" s="13"/>
-      <c r="C63" s="17"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="11"/>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
@@ -3179,21 +3229,21 @@
       <c r="W63" s="2"/>
     </row>
     <row r="64" spans="1:23" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="16" t="s">
+      <c r="A64" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="B64" s="20"/>
+      <c r="C64" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E64" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B64" s="13"/>
-      <c r="C64" s="17" t="s">
+      <c r="F64" s="8" t="s">
         <v>168</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>171</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -3214,11 +3264,11 @@
       <c r="W64" s="2"/>
     </row>
     <row r="65" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="16" t="s">
-        <v>172</v>
+      <c r="A65" s="19" t="s">
+        <v>169</v>
       </c>
-      <c r="B65" s="13"/>
-      <c r="C65" s="17"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="11"/>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
@@ -3241,11 +3291,11 @@
       <c r="W65" s="2"/>
     </row>
     <row r="66" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="16" t="s">
-        <v>173</v>
+      <c r="A66" s="19" t="s">
+        <v>170</v>
       </c>
-      <c r="B66" s="13"/>
-      <c r="C66" s="17"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="11"/>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
@@ -3270,10 +3320,10 @@
     <row r="67" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="23"/>
       <c r="B67" s="24"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
@@ -3293,8 +3343,8 @@
       <c r="W67" s="2"/>
     </row>
     <row r="68" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="10"/>
-      <c r="B68" s="11"/>
+      <c r="A68" s="25"/>
+      <c r="B68" s="26"/>
       <c r="C68" s="6"/>
       <c r="D68" s="5"/>
       <c r="E68" s="3"/>
@@ -26645,35 +26695,27 @@
   </sheetData>
   <autoFilter ref="A1:B1001"/>
   <mergeCells count="66">
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A64:B64"/>
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="A66:B66"/>
     <mergeCell ref="A65:B65"/>
@@ -26690,33 +26732,43 @@
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D49" r:id="rId1"/>
+    <hyperlink ref="D48" r:id="rId2"/>
+    <hyperlink ref="D51" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>